--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_8_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_8_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24240.30600320655</v>
+        <v>4823820.894638105</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24240.30600320655</v>
+        <v>4823820.894638105</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>25560.57186029029</v>
+        <v>1533634.311617417</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25560.57186029029</v>
+        <v>1533634.311617417</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1265385674.483987</v>
+        <v>50180129.93077695</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10940.54773039453</v>
+        <v>1140292.76746415</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21269.60057437353</v>
+        <v>2179278.82573854</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31598.65341835251</v>
+        <v>3218264.884012932</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>43441.78376405379</v>
+        <v>4208884.433551008</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>55214.27491783584</v>
+        <v>5185446.783897165</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>66986.76607161789</v>
+        <v>6162009.134243319</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>78759.25722539994</v>
+        <v>7138571.484589473</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>91060.68305335437</v>
+        <v>8135671.981308365</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>102729.9674414443</v>
+        <v>9091696.185281776</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>114502.4585952264</v>
+        <v>10068258.53562793</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>125244.9093784992</v>
+        <v>11107244.59390231</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>135640.3916280673</v>
+        <v>12132187.83898018</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>146106.4407781206</v>
+        <v>13171173.89725457</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>156975.7328302271</v>
+        <v>14175578.88586553</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>167845.0971737677</v>
+        <v>15179998.26047188</v>
       </c>
     </row>
   </sheetData>
@@ -27037,25 +27037,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,19 +27147,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>223</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>326</v>
